--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -1,66 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ejnu-my.sharepoint.com/personal/151923_jnu_ac_kr/Documents/공부/Project/cow_manager/Cow_Manager/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ejnu-my.sharepoint.com/personal/151923_jnu_ac_kr/Documents/공부/Project/cow_manager/Cow_Manager/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{48D68902-C068-E545-801B-F6BCBDDA523B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{10B37AF5-E445-2949-9EE0-1F035E76E431}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{99347A44-0C16-C149-869F-2EAAE6FAC515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74C2C05-F145-6046-A38C-82CDBFD25EAB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{0E7F0015-2C4A-2D47-B3EF-223AB0CFED1D}"/>
+    <workbookView xWindow="2640" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>animalNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cageNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>AnimalNo</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>HouseNo</t>
+  </si>
+  <si>
+    <t>CageNo</t>
+  </si>
+  <si>
+    <t>Fam</t>
+  </si>
+  <si>
+    <t>Brucella</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>Update</t>
   </si>
   <si>
     <t>002 1464 29601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암</t>
+  </si>
+  <si>
+    <t>21.05.03 (4차) 접종 후 8일 경과</t>
+  </si>
+  <si>
+    <t>2020.6.4 검사일로부터 341일</t>
+  </si>
+  <si>
+    <t>해당없음</t>
+  </si>
+  <si>
+    <t>002 1489 64282</t>
+  </si>
+  <si>
+    <t>21.04.27 (3차) 접종 후 14일 경과</t>
+  </si>
+  <si>
+    <t>2020.8.13 검사일로부터 271일</t>
   </si>
   <si>
     <t>002 1464 30253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002 1489 64282</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.05.03 (3차) 접종 후 8일 경과</t>
+  </si>
+  <si>
+    <t>2020.7.30 검사일로부터 285일</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +96,150 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -77,15 +247,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,9 +436,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -103,11 +676,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,52 +1033,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F721B9-38C1-3E46-9F8F-F54340291412}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43840</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43910</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43852</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>